--- a/Financials/Quarterly/EC_QTR_FIN.xlsx
+++ b/Financials/Quarterly/EC_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC4BCCC-D7BE-4E72-9697-8D18DEB8CC49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EC" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -300,9 +301,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +345,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -441,6 +442,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,6 +494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,153 +686,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5605700</v>
+        <v>5720300</v>
       </c>
       <c r="E8" s="3">
-        <v>4832100</v>
+        <v>10121500</v>
       </c>
       <c r="F8" s="3">
-        <v>5069800</v>
+        <v>4685600</v>
       </c>
       <c r="G8" s="3">
-        <v>4397200</v>
+        <v>4916200</v>
       </c>
       <c r="H8" s="3">
-        <v>4339800</v>
+        <v>4263900</v>
       </c>
       <c r="I8" s="3">
-        <v>4412600</v>
+        <v>4208300</v>
       </c>
       <c r="J8" s="3">
+        <v>4278900</v>
+      </c>
+      <c r="K8" s="3">
         <v>4393300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4020500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3219900</v>
+        <v>3399300</v>
       </c>
       <c r="E9" s="3">
-        <v>2919400</v>
+        <v>5953300</v>
       </c>
       <c r="F9" s="3">
-        <v>3215900</v>
+        <v>2831000</v>
       </c>
       <c r="G9" s="3">
-        <v>2896500</v>
+        <v>3118400</v>
       </c>
       <c r="H9" s="3">
-        <v>3044400</v>
+        <v>2808700</v>
       </c>
       <c r="I9" s="3">
-        <v>3018100</v>
+        <v>2952200</v>
       </c>
       <c r="J9" s="3">
+        <v>2926600</v>
+      </c>
+      <c r="K9" s="3">
         <v>3202400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2883800</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2385800</v>
+        <v>2321000</v>
       </c>
       <c r="E10" s="3">
-        <v>1912600</v>
+        <v>4168200</v>
       </c>
       <c r="F10" s="3">
-        <v>1853900</v>
+        <v>1854700</v>
       </c>
       <c r="G10" s="3">
-        <v>1500700</v>
+        <v>1797800</v>
       </c>
       <c r="H10" s="3">
-        <v>1295400</v>
+        <v>1455200</v>
       </c>
       <c r="I10" s="3">
-        <v>1394500</v>
+        <v>1256100</v>
       </c>
       <c r="J10" s="3">
+        <v>1352300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1190900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1136600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,37 +857,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>38700</v>
+        <v>321900</v>
       </c>
       <c r="E12" s="3">
-        <v>23300</v>
+        <v>60100</v>
       </c>
       <c r="F12" s="3">
-        <v>301300</v>
+        <v>22600</v>
       </c>
       <c r="G12" s="3">
-        <v>107200</v>
+        <v>292200</v>
       </c>
       <c r="H12" s="3">
-        <v>25500</v>
+        <v>103900</v>
       </c>
       <c r="I12" s="3">
-        <v>8900</v>
+        <v>24700</v>
       </c>
       <c r="J12" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K12" s="3">
         <v>96800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -867,66 +919,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>21900</v>
+        <v>-31100</v>
       </c>
       <c r="E14" s="3">
-        <v>-38100</v>
+        <v>-15600</v>
       </c>
       <c r="F14" s="3">
-        <v>-573800</v>
+        <v>-36900</v>
       </c>
       <c r="G14" s="3">
-        <v>8200</v>
+        <v>-556400</v>
       </c>
       <c r="H14" s="3">
-        <v>-13300</v>
+        <v>7900</v>
       </c>
       <c r="I14" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>244000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>5900</v>
+        <v>5400</v>
       </c>
       <c r="E15" s="3">
-        <v>6700</v>
+        <v>12200</v>
       </c>
       <c r="F15" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K15" s="3">
+        <v>16400</v>
+      </c>
+      <c r="L15" s="3">
         <v>9000</v>
       </c>
-      <c r="G15" s="3">
-        <v>15400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>11200</v>
-      </c>
-      <c r="I15" s="3">
-        <v>13700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>16400</v>
-      </c>
-      <c r="K15" s="3">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,66 +996,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3498900</v>
+        <v>3911500</v>
       </c>
       <c r="E17" s="3">
-        <v>3122700</v>
+        <v>6420900</v>
       </c>
       <c r="F17" s="3">
-        <v>3208200</v>
+        <v>3028000</v>
       </c>
       <c r="G17" s="3">
-        <v>3300700</v>
+        <v>3111000</v>
       </c>
       <c r="H17" s="3">
-        <v>3261500</v>
+        <v>3200600</v>
       </c>
       <c r="I17" s="3">
-        <v>3324000</v>
+        <v>3162600</v>
       </c>
       <c r="J17" s="3">
+        <v>3223200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3854400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3182100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2106800</v>
+        <v>1808800</v>
       </c>
       <c r="E18" s="3">
-        <v>1709400</v>
+        <v>3700600</v>
       </c>
       <c r="F18" s="3">
-        <v>1861600</v>
+        <v>1657600</v>
       </c>
       <c r="G18" s="3">
-        <v>1096500</v>
+        <v>1805100</v>
       </c>
       <c r="H18" s="3">
-        <v>1078300</v>
+        <v>1063300</v>
       </c>
       <c r="I18" s="3">
-        <v>1088600</v>
+        <v>1045700</v>
       </c>
       <c r="J18" s="3">
+        <v>1055600</v>
+      </c>
+      <c r="K18" s="3">
         <v>538900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>838400</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,153 +1074,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>20700</v>
+        <v>22900</v>
       </c>
       <c r="E20" s="3">
-        <v>29600</v>
+        <v>48800</v>
       </c>
       <c r="F20" s="3">
-        <v>18700</v>
+        <v>28700</v>
       </c>
       <c r="G20" s="3">
-        <v>-60600</v>
+        <v>18100</v>
       </c>
       <c r="H20" s="3">
-        <v>120900</v>
+        <v>-58800</v>
       </c>
       <c r="I20" s="3">
-        <v>-114400</v>
+        <v>117200</v>
       </c>
       <c r="J20" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="K20" s="3">
         <v>291700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2760200</v>
+        <v>2494300</v>
       </c>
       <c r="E21" s="3">
-        <v>2330000</v>
+        <v>4935900</v>
       </c>
       <c r="F21" s="3">
-        <v>2486600</v>
+        <v>2259400</v>
       </c>
       <c r="G21" s="3">
-        <v>1772000</v>
+        <v>2411200</v>
       </c>
       <c r="H21" s="3">
-        <v>1903900</v>
+        <v>1718300</v>
       </c>
       <c r="I21" s="3">
-        <v>1655100</v>
+        <v>1846200</v>
       </c>
       <c r="J21" s="3">
+        <v>1604900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1464900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1499400</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>193700</v>
+        <v>171400</v>
       </c>
       <c r="E22" s="3">
-        <v>189000</v>
+        <v>371000</v>
       </c>
       <c r="F22" s="3">
-        <v>213200</v>
+        <v>183200</v>
       </c>
       <c r="G22" s="3">
-        <v>204400</v>
+        <v>206800</v>
       </c>
       <c r="H22" s="3">
-        <v>158100</v>
+        <v>198200</v>
       </c>
       <c r="I22" s="3">
-        <v>211600</v>
+        <v>153300</v>
       </c>
       <c r="J22" s="3">
+        <v>205200</v>
+      </c>
+      <c r="K22" s="3">
         <v>226800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>252900</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1933800</v>
+        <v>1660400</v>
       </c>
       <c r="E23" s="3">
-        <v>1550000</v>
+        <v>3378300</v>
       </c>
       <c r="F23" s="3">
-        <v>1667000</v>
+        <v>1503000</v>
       </c>
       <c r="G23" s="3">
-        <v>831500</v>
+        <v>1616500</v>
       </c>
       <c r="H23" s="3">
-        <v>1041100</v>
+        <v>806300</v>
       </c>
       <c r="I23" s="3">
-        <v>762500</v>
+        <v>1009600</v>
       </c>
       <c r="J23" s="3">
+        <v>739400</v>
+      </c>
+      <c r="K23" s="3">
         <v>603800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>555500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>690900</v>
+        <v>698100</v>
       </c>
       <c r="E24" s="3">
-        <v>620400</v>
+        <v>1271500</v>
       </c>
       <c r="F24" s="3">
-        <v>471500</v>
+        <v>601600</v>
       </c>
       <c r="G24" s="3">
-        <v>427600</v>
+        <v>457200</v>
       </c>
       <c r="H24" s="3">
-        <v>551800</v>
+        <v>414600</v>
       </c>
       <c r="I24" s="3">
-        <v>408600</v>
+        <v>535100</v>
       </c>
       <c r="J24" s="3">
+        <v>396300</v>
+      </c>
+      <c r="K24" s="3">
         <v>485600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>408300</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,66 +1264,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1243000</v>
+        <v>962300</v>
       </c>
       <c r="E26" s="3">
-        <v>929700</v>
+        <v>2106800</v>
       </c>
       <c r="F26" s="3">
-        <v>1195500</v>
+        <v>901500</v>
       </c>
       <c r="G26" s="3">
-        <v>403900</v>
+        <v>1159300</v>
       </c>
       <c r="H26" s="3">
-        <v>489300</v>
+        <v>391700</v>
       </c>
       <c r="I26" s="3">
-        <v>353900</v>
+        <v>474500</v>
       </c>
       <c r="J26" s="3">
+        <v>343200</v>
+      </c>
+      <c r="K26" s="3">
         <v>118200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>147200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1161400</v>
+        <v>888000</v>
       </c>
       <c r="E27" s="3">
-        <v>862900</v>
+        <v>1962900</v>
       </c>
       <c r="F27" s="3">
-        <v>1130800</v>
+        <v>836700</v>
       </c>
       <c r="G27" s="3">
-        <v>331100</v>
+        <v>1096500</v>
       </c>
       <c r="H27" s="3">
-        <v>430600</v>
+        <v>321100</v>
       </c>
       <c r="I27" s="3">
-        <v>292300</v>
+        <v>417500</v>
       </c>
       <c r="J27" s="3">
+        <v>283500</v>
+      </c>
+      <c r="K27" s="3">
         <v>61400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1267,8 +1360,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1296,8 +1392,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1325,8 +1424,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1354,66 +1456,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-20700</v>
+        <v>-22900</v>
       </c>
       <c r="E32" s="3">
-        <v>-29600</v>
+        <v>-48800</v>
       </c>
       <c r="F32" s="3">
-        <v>-18700</v>
+        <v>-28700</v>
       </c>
       <c r="G32" s="3">
-        <v>60600</v>
+        <v>-18100</v>
       </c>
       <c r="H32" s="3">
-        <v>-120900</v>
+        <v>58800</v>
       </c>
       <c r="I32" s="3">
-        <v>114400</v>
+        <v>-117200</v>
       </c>
       <c r="J32" s="3">
+        <v>111000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-291700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1161400</v>
+        <v>888000</v>
       </c>
       <c r="E33" s="3">
-        <v>862900</v>
+        <v>1962900</v>
       </c>
       <c r="F33" s="3">
-        <v>1130800</v>
+        <v>836700</v>
       </c>
       <c r="G33" s="3">
-        <v>331100</v>
+        <v>1096500</v>
       </c>
       <c r="H33" s="3">
-        <v>430600</v>
+        <v>321100</v>
       </c>
       <c r="I33" s="3">
-        <v>292300</v>
+        <v>417500</v>
       </c>
       <c r="J33" s="3">
+        <v>283500</v>
+      </c>
+      <c r="K33" s="3">
         <v>61400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1441,71 +1552,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1161400</v>
+        <v>888000</v>
       </c>
       <c r="E35" s="3">
-        <v>862900</v>
+        <v>1962900</v>
       </c>
       <c r="F35" s="3">
-        <v>1130800</v>
+        <v>836700</v>
       </c>
       <c r="G35" s="3">
-        <v>331100</v>
+        <v>1096500</v>
       </c>
       <c r="H35" s="3">
-        <v>430600</v>
+        <v>321100</v>
       </c>
       <c r="I35" s="3">
-        <v>292300</v>
+        <v>417500</v>
       </c>
       <c r="J35" s="3">
+        <v>283500</v>
+      </c>
+      <c r="K35" s="3">
         <v>61400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1517,8 +1637,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1530,269 +1651,297 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1351200</v>
+        <v>1526300</v>
       </c>
       <c r="E41" s="3">
-        <v>1763100</v>
+        <v>1310200</v>
       </c>
       <c r="F41" s="3">
-        <v>1810500</v>
+        <v>1709700</v>
       </c>
       <c r="G41" s="3">
-        <v>1889700</v>
+        <v>1755700</v>
       </c>
       <c r="H41" s="3">
-        <v>1548500</v>
+        <v>1832500</v>
       </c>
       <c r="I41" s="3">
-        <v>1610500</v>
+        <v>1501600</v>
       </c>
       <c r="J41" s="3">
+        <v>1561700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1095700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1691700</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>2806900</v>
+        <v>3172600</v>
       </c>
       <c r="E42" s="3">
-        <v>2290300</v>
+        <v>2721800</v>
       </c>
       <c r="F42" s="3">
-        <v>1791000</v>
+        <v>2220900</v>
       </c>
       <c r="G42" s="3">
-        <v>1609000</v>
+        <v>1736700</v>
       </c>
       <c r="H42" s="3">
-        <v>1153400</v>
+        <v>1560200</v>
       </c>
       <c r="I42" s="3">
-        <v>3413900</v>
+        <v>1118400</v>
       </c>
       <c r="J42" s="3">
+        <v>3310400</v>
+      </c>
+      <c r="K42" s="3">
         <v>3450900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2458300</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2890900</v>
+        <v>2785800</v>
       </c>
       <c r="E43" s="3">
-        <v>2496100</v>
+        <v>2803300</v>
       </c>
       <c r="F43" s="3">
-        <v>2414200</v>
+        <v>2420400</v>
       </c>
       <c r="G43" s="3">
-        <v>2040400</v>
+        <v>2341000</v>
       </c>
       <c r="H43" s="3">
-        <v>1964900</v>
+        <v>1978600</v>
       </c>
       <c r="I43" s="3">
-        <v>1759000</v>
+        <v>1905300</v>
       </c>
       <c r="J43" s="3">
+        <v>1705700</v>
+      </c>
+      <c r="K43" s="3">
         <v>2007700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2235000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1805600</v>
+        <v>1732200</v>
       </c>
       <c r="E44" s="3">
-        <v>1626700</v>
+        <v>1750900</v>
       </c>
       <c r="F44" s="3">
-        <v>1518500</v>
+        <v>1577400</v>
       </c>
       <c r="G44" s="3">
-        <v>1559400</v>
+        <v>1472400</v>
       </c>
       <c r="H44" s="3">
-        <v>1408800</v>
+        <v>1512100</v>
       </c>
       <c r="I44" s="3">
-        <v>1429100</v>
+        <v>1366100</v>
       </c>
       <c r="J44" s="3">
+        <v>1385800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1267800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1075500</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>137500</v>
+        <v>155300</v>
       </c>
       <c r="E45" s="3">
-        <v>144500</v>
+        <v>133300</v>
       </c>
       <c r="F45" s="3">
-        <v>129800</v>
+        <v>140100</v>
       </c>
       <c r="G45" s="3">
-        <v>186300</v>
+        <v>125800</v>
       </c>
       <c r="H45" s="3">
-        <v>197400</v>
+        <v>180600</v>
       </c>
       <c r="I45" s="3">
-        <v>175200</v>
+        <v>191400</v>
       </c>
       <c r="J45" s="3">
+        <v>169900</v>
+      </c>
+      <c r="K45" s="3">
         <v>140500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>313400</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>8992100</v>
+        <v>9372100</v>
       </c>
       <c r="E46" s="3">
-        <v>8320600</v>
+        <v>8719600</v>
       </c>
       <c r="F46" s="3">
-        <v>7663900</v>
+        <v>8068500</v>
       </c>
       <c r="G46" s="3">
-        <v>7284800</v>
+        <v>7431700</v>
       </c>
       <c r="H46" s="3">
-        <v>6272900</v>
+        <v>7064000</v>
       </c>
       <c r="I46" s="3">
-        <v>8387600</v>
+        <v>6082800</v>
       </c>
       <c r="J46" s="3">
+        <v>8133400</v>
+      </c>
+      <c r="K46" s="3">
         <v>7962600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7773800</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1790000</v>
+        <v>1815600</v>
       </c>
       <c r="E47" s="3">
-        <v>2122400</v>
+        <v>1735800</v>
       </c>
       <c r="F47" s="3">
-        <v>1872200</v>
+        <v>2058100</v>
       </c>
       <c r="G47" s="3">
-        <v>1427300</v>
+        <v>1815500</v>
       </c>
       <c r="H47" s="3">
-        <v>1464300</v>
+        <v>1384000</v>
       </c>
       <c r="I47" s="3">
-        <v>1512300</v>
+        <v>1419900</v>
       </c>
       <c r="J47" s="3">
+        <v>1466400</v>
+      </c>
+      <c r="K47" s="3">
         <v>1205600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1328900</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>27099300</v>
+        <v>26214900</v>
       </c>
       <c r="E48" s="3">
-        <v>26445200</v>
+        <v>26278100</v>
       </c>
       <c r="F48" s="3">
-        <v>27280500</v>
+        <v>25643900</v>
       </c>
       <c r="G48" s="3">
-        <v>26587400</v>
+        <v>26453800</v>
       </c>
       <c r="H48" s="3">
-        <v>27336000</v>
+        <v>25781800</v>
       </c>
       <c r="I48" s="3">
-        <v>27056100</v>
+        <v>26507600</v>
       </c>
       <c r="J48" s="3">
+        <v>26236200</v>
+      </c>
+      <c r="K48" s="3">
         <v>27921300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27732000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>421900</v>
+        <v>419900</v>
       </c>
       <c r="E49" s="3">
-        <v>422500</v>
+        <v>409100</v>
       </c>
       <c r="F49" s="3">
-        <v>428900</v>
+        <v>409700</v>
       </c>
       <c r="G49" s="3">
-        <v>417500</v>
+        <v>415900</v>
       </c>
       <c r="H49" s="3">
-        <v>386900</v>
+        <v>404900</v>
       </c>
       <c r="I49" s="3">
-        <v>392200</v>
+        <v>375200</v>
       </c>
       <c r="J49" s="3">
+        <v>380300</v>
+      </c>
+      <c r="K49" s="3">
         <v>393200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>426000</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1820,8 +1969,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1849,37 +2001,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1819100</v>
+        <v>1819700</v>
       </c>
       <c r="E52" s="3">
-        <v>1817300</v>
+        <v>1764000</v>
       </c>
       <c r="F52" s="3">
-        <v>2577100</v>
+        <v>1762300</v>
       </c>
       <c r="G52" s="3">
-        <v>2651600</v>
+        <v>2499000</v>
       </c>
       <c r="H52" s="3">
-        <v>2719000</v>
+        <v>2571300</v>
       </c>
       <c r="I52" s="3">
-        <v>2416100</v>
+        <v>2636600</v>
       </c>
       <c r="J52" s="3">
+        <v>2342900</v>
+      </c>
+      <c r="K52" s="3">
         <v>2548600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2709300</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1907,37 +2065,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>40122400</v>
+        <v>39642200</v>
       </c>
       <c r="E54" s="3">
-        <v>39128200</v>
+        <v>38906600</v>
       </c>
       <c r="F54" s="3">
-        <v>39822600</v>
+        <v>37942500</v>
       </c>
       <c r="G54" s="3">
-        <v>38368600</v>
+        <v>38615900</v>
       </c>
       <c r="H54" s="3">
-        <v>38179100</v>
+        <v>37205900</v>
       </c>
       <c r="I54" s="3">
-        <v>39764200</v>
+        <v>37022200</v>
       </c>
       <c r="J54" s="3">
+        <v>38559200</v>
+      </c>
+      <c r="K54" s="3">
         <v>40031400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39970100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1949,8 +2113,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1962,182 +2127,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1726200</v>
+        <v>1978100</v>
       </c>
       <c r="E57" s="3">
-        <v>1525400</v>
+        <v>1673800</v>
       </c>
       <c r="F57" s="3">
-        <v>1679400</v>
+        <v>1479200</v>
       </c>
       <c r="G57" s="3">
-        <v>1389200</v>
+        <v>1628500</v>
       </c>
       <c r="H57" s="3">
-        <v>1360900</v>
+        <v>1347100</v>
       </c>
       <c r="I57" s="3">
-        <v>1273800</v>
+        <v>1319700</v>
       </c>
       <c r="J57" s="3">
+        <v>1235200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1540900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1802300</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1873400</v>
+        <v>2571000</v>
       </c>
       <c r="E58" s="3">
-        <v>1627800</v>
+        <v>1816600</v>
       </c>
       <c r="F58" s="3">
-        <v>1697700</v>
+        <v>1578500</v>
       </c>
       <c r="G58" s="3">
-        <v>1688000</v>
+        <v>1646200</v>
       </c>
       <c r="H58" s="3">
-        <v>1293400</v>
+        <v>1636800</v>
       </c>
       <c r="I58" s="3">
-        <v>1351300</v>
+        <v>1254200</v>
       </c>
       <c r="J58" s="3">
+        <v>1310400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1361600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1668900</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2623300</v>
+        <v>2472600</v>
       </c>
       <c r="E59" s="3">
-        <v>3619900</v>
+        <v>2543800</v>
       </c>
       <c r="F59" s="3">
-        <v>2182300</v>
+        <v>3510200</v>
       </c>
       <c r="G59" s="3">
-        <v>2252900</v>
+        <v>2116200</v>
       </c>
       <c r="H59" s="3">
-        <v>2134800</v>
+        <v>2184600</v>
       </c>
       <c r="I59" s="3">
-        <v>3011500</v>
+        <v>2070100</v>
       </c>
       <c r="J59" s="3">
+        <v>2920300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2505200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1795500</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>6222800</v>
+        <v>7021700</v>
       </c>
       <c r="E60" s="3">
-        <v>6773100</v>
+        <v>6034200</v>
       </c>
       <c r="F60" s="3">
-        <v>5559400</v>
+        <v>6567800</v>
       </c>
       <c r="G60" s="3">
-        <v>5330000</v>
+        <v>5390900</v>
       </c>
       <c r="H60" s="3">
-        <v>4789200</v>
+        <v>5168500</v>
       </c>
       <c r="I60" s="3">
-        <v>5636700</v>
+        <v>4644100</v>
       </c>
       <c r="J60" s="3">
+        <v>5465900</v>
+      </c>
+      <c r="K60" s="3">
         <v>5407800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5266700</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>11765100</v>
+        <v>10194000</v>
       </c>
       <c r="E61" s="3">
-        <v>11888600</v>
+        <v>11408600</v>
       </c>
       <c r="F61" s="3">
-        <v>12673100</v>
+        <v>11528400</v>
       </c>
       <c r="G61" s="3">
-        <v>13033500</v>
+        <v>12289100</v>
       </c>
       <c r="H61" s="3">
-        <v>13923900</v>
+        <v>12638500</v>
       </c>
       <c r="I61" s="3">
-        <v>15284400</v>
+        <v>13502000</v>
       </c>
       <c r="J61" s="3">
+        <v>14821200</v>
+      </c>
+      <c r="K61" s="3">
         <v>15871600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15481100</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>4896100</v>
+        <v>4772100</v>
       </c>
       <c r="E62" s="3">
-        <v>4682300</v>
+        <v>4747700</v>
       </c>
       <c r="F62" s="3">
-        <v>5162300</v>
+        <v>4540400</v>
       </c>
       <c r="G62" s="3">
-        <v>4197300</v>
+        <v>5005900</v>
       </c>
       <c r="H62" s="3">
-        <v>3963100</v>
+        <v>4070100</v>
       </c>
       <c r="I62" s="3">
-        <v>3855700</v>
+        <v>3843000</v>
       </c>
       <c r="J62" s="3">
+        <v>3738900</v>
+      </c>
+      <c r="K62" s="3">
         <v>3796500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3809200</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2165,8 +2349,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2194,8 +2381,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2223,37 +2413,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>23513900</v>
+        <v>22564700</v>
       </c>
       <c r="E66" s="3">
-        <v>23884900</v>
+        <v>22801300</v>
       </c>
       <c r="F66" s="3">
-        <v>24016000</v>
+        <v>23161100</v>
       </c>
       <c r="G66" s="3">
-        <v>23137400</v>
+        <v>23288300</v>
       </c>
       <c r="H66" s="3">
-        <v>23285100</v>
+        <v>22436200</v>
       </c>
       <c r="I66" s="3">
-        <v>25312700</v>
+        <v>22579500</v>
       </c>
       <c r="J66" s="3">
+        <v>24545600</v>
+      </c>
+      <c r="K66" s="3">
         <v>25619100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25118300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2265,8 +2461,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2294,8 +2491,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2323,8 +2523,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2352,8 +2555,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2381,37 +2587,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>4079100</v>
+        <v>4843600</v>
       </c>
       <c r="E72" s="3">
-        <v>2917900</v>
+        <v>3955500</v>
       </c>
       <c r="F72" s="3">
-        <v>3262600</v>
+        <v>2829500</v>
       </c>
       <c r="G72" s="3">
-        <v>2132200</v>
+        <v>3163800</v>
       </c>
       <c r="H72" s="3">
-        <v>1801100</v>
+        <v>2067600</v>
       </c>
       <c r="I72" s="3">
-        <v>1370600</v>
+        <v>1746600</v>
       </c>
       <c r="J72" s="3">
+        <v>1329000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1390300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1327600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2439,8 +2651,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2468,8 +2683,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2497,37 +2715,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>16608600</v>
+        <v>17077500</v>
       </c>
       <c r="E76" s="3">
-        <v>15243300</v>
+        <v>16105300</v>
       </c>
       <c r="F76" s="3">
-        <v>15806500</v>
+        <v>14781400</v>
       </c>
       <c r="G76" s="3">
-        <v>15231200</v>
+        <v>15327600</v>
       </c>
       <c r="H76" s="3">
-        <v>14894000</v>
+        <v>14769700</v>
       </c>
       <c r="I76" s="3">
-        <v>14451500</v>
+        <v>14442700</v>
       </c>
       <c r="J76" s="3">
+        <v>14013600</v>
+      </c>
+      <c r="K76" s="3">
         <v>14412400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14851800</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2555,71 +2779,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1161400</v>
+        <v>888000</v>
       </c>
       <c r="E81" s="3">
-        <v>862900</v>
+        <v>1962900</v>
       </c>
       <c r="F81" s="3">
-        <v>1130800</v>
+        <v>836700</v>
       </c>
       <c r="G81" s="3">
-        <v>331100</v>
+        <v>1096500</v>
       </c>
       <c r="H81" s="3">
-        <v>430600</v>
+        <v>321100</v>
       </c>
       <c r="I81" s="3">
-        <v>292300</v>
+        <v>417500</v>
       </c>
       <c r="J81" s="3">
+        <v>283500</v>
+      </c>
+      <c r="K81" s="3">
         <v>61400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2631,37 +2864,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>632600</v>
+        <v>662600</v>
       </c>
       <c r="E83" s="3">
-        <v>591000</v>
+        <v>1186500</v>
       </c>
       <c r="F83" s="3">
-        <v>606300</v>
+        <v>573100</v>
       </c>
       <c r="G83" s="3">
-        <v>736100</v>
+        <v>588000</v>
       </c>
       <c r="H83" s="3">
-        <v>704600</v>
+        <v>713800</v>
       </c>
       <c r="I83" s="3">
-        <v>680900</v>
+        <v>683300</v>
       </c>
       <c r="J83" s="3">
+        <v>660300</v>
+      </c>
+      <c r="K83" s="3">
         <v>634300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>690900</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2689,8 +2926,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2718,8 +2958,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2747,8 +2990,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2776,8 +3022,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2805,37 +3054,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1531500</v>
+        <v>2737200</v>
       </c>
       <c r="E89" s="3">
-        <v>1542000</v>
+        <v>2980400</v>
       </c>
       <c r="F89" s="3">
-        <v>2096700</v>
+        <v>1495300</v>
       </c>
       <c r="G89" s="3">
-        <v>1540700</v>
+        <v>2033100</v>
       </c>
       <c r="H89" s="3">
-        <v>493900</v>
+        <v>1494000</v>
       </c>
       <c r="I89" s="3">
-        <v>1470000</v>
+        <v>478900</v>
       </c>
       <c r="J89" s="3">
+        <v>1425500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1328000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2847,37 +3102,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>21300</v>
+        <v>-261100</v>
       </c>
       <c r="E91" s="3">
-        <v>-394300</v>
+        <v>-355200</v>
       </c>
       <c r="F91" s="3">
-        <v>-719200</v>
+        <v>-142000</v>
       </c>
       <c r="G91" s="3">
-        <v>-940000</v>
+        <v>-305300</v>
       </c>
       <c r="H91" s="3">
-        <v>-84200</v>
+        <v>-160000</v>
       </c>
       <c r="I91" s="3">
-        <v>-225200</v>
+        <v>-200100</v>
       </c>
       <c r="J91" s="3">
+        <v>-90800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-743300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-691400</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2905,8 +3164,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2934,37 +3196,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-640100</v>
+        <v>-1153500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1187300</v>
+        <v>-1772100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1170700</v>
+        <v>-1151400</v>
       </c>
       <c r="G94" s="3">
-        <v>-642700</v>
+        <v>-1135300</v>
       </c>
       <c r="H94" s="3">
-        <v>1518300</v>
+        <v>-623200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1151500</v>
+        <v>1472300</v>
       </c>
       <c r="J94" s="3">
+        <v>-1116600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-834500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1463100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2976,37 +3244,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-729400</v>
+        <v>-586200</v>
       </c>
       <c r="E96" s="3">
-        <v>-80900</v>
+        <v>-785800</v>
       </c>
       <c r="F96" s="3">
-        <v>-65900</v>
+        <v>-78400</v>
       </c>
       <c r="G96" s="3">
-        <v>-55500</v>
+        <v>-63900</v>
       </c>
       <c r="H96" s="3">
-        <v>-337400</v>
+        <v>-53900</v>
       </c>
       <c r="I96" s="3">
-        <v>-37700</v>
+        <v>-327100</v>
       </c>
       <c r="J96" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-105500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-95000</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3034,8 +3306,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3063,8 +3338,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3092,91 +3370,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1409500</v>
+        <v>-1394500</v>
       </c>
       <c r="E100" s="3">
-        <v>-301300</v>
+        <v>-1658900</v>
       </c>
       <c r="F100" s="3">
-        <v>-905200</v>
+        <v>-292200</v>
       </c>
       <c r="G100" s="3">
-        <v>-286800</v>
+        <v>-877700</v>
       </c>
       <c r="H100" s="3">
-        <v>-2717000</v>
+        <v>-278100</v>
       </c>
       <c r="I100" s="3">
-        <v>-303200</v>
+        <v>-2634600</v>
       </c>
       <c r="J100" s="3">
+        <v>-294000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-314200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-619400</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>13500</v>
+        <v>61400</v>
       </c>
       <c r="E101" s="3">
-        <v>-79600</v>
+        <v>-64100</v>
       </c>
       <c r="F101" s="3">
-        <v>10100</v>
+        <v>-77200</v>
       </c>
       <c r="G101" s="3">
-        <v>-81300</v>
+        <v>9800</v>
       </c>
       <c r="H101" s="3">
-        <v>71700</v>
+        <v>-78800</v>
       </c>
       <c r="I101" s="3">
-        <v>-96400</v>
+        <v>69600</v>
       </c>
       <c r="J101" s="3">
+        <v>-93500</v>
+      </c>
+      <c r="K101" s="3">
         <v>51000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-504600</v>
+        <v>250600</v>
       </c>
       <c r="E102" s="3">
-        <v>-26200</v>
+        <v>-514700</v>
       </c>
       <c r="F102" s="3">
-        <v>30900</v>
+        <v>-25400</v>
       </c>
       <c r="G102" s="3">
-        <v>529900</v>
+        <v>30000</v>
       </c>
       <c r="H102" s="3">
-        <v>-633100</v>
+        <v>513900</v>
       </c>
       <c r="I102" s="3">
-        <v>-81100</v>
+        <v>-613900</v>
       </c>
       <c r="J102" s="3">
+        <v>-78600</v>
+      </c>
+      <c r="K102" s="3">
         <v>230300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-67900</v>
       </c>
     </row>

--- a/Financials/Quarterly/EC_QTR_FIN.xlsx
+++ b/Financials/Quarterly/EC_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC4BCCC-D7BE-4E72-9697-8D18DEB8CC49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="EC" sheetId="6" r:id="rId1"/>
@@ -301,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -442,23 +441,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,23 +476,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,166 +651,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5720300</v>
+        <v>5404300</v>
       </c>
       <c r="E8" s="3">
-        <v>10121500</v>
+        <v>5492600</v>
       </c>
       <c r="F8" s="3">
-        <v>4685600</v>
+        <v>4782800</v>
       </c>
       <c r="G8" s="3">
+        <v>5494300</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5362800</v>
+      </c>
+      <c r="I8" s="3">
+        <v>9488900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4392800</v>
+      </c>
+      <c r="K8" s="3">
         <v>4916200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>4263900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>4208300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>4278900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>4393300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>4020500</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3399300</v>
+        <v>3372100</v>
       </c>
       <c r="E9" s="3">
-        <v>5953300</v>
+        <v>3364000</v>
       </c>
       <c r="F9" s="3">
-        <v>2831000</v>
+        <v>3070200</v>
       </c>
       <c r="G9" s="3">
+        <v>3582800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3186800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5581200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2654000</v>
+      </c>
+      <c r="K9" s="3">
         <v>3118400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="L9" s="3">
         <v>2808700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="M9" s="3">
         <v>2952200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
         <v>2926600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
         <v>3202400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="P9" s="3">
         <v>2883800</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2321000</v>
+        <v>2032200</v>
       </c>
       <c r="E10" s="3">
-        <v>4168200</v>
+        <v>2128600</v>
       </c>
       <c r="F10" s="3">
-        <v>1854700</v>
+        <v>1712500</v>
       </c>
       <c r="G10" s="3">
+        <v>1911500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2176000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3907700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1738700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1797800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="L10" s="3">
         <v>1455200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
         <v>1256100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>1352300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>1190900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="P10" s="3">
         <v>1136600</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -858,40 +874,56 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>321900</v>
+        <v>17500</v>
       </c>
       <c r="E12" s="3">
-        <v>60100</v>
+        <v>74300</v>
       </c>
       <c r="F12" s="3">
-        <v>22600</v>
+        <v>18400</v>
       </c>
       <c r="G12" s="3">
+        <v>58000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>301800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>56400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K12" s="3">
         <v>292200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="L12" s="3">
         <v>103900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="M12" s="3">
         <v>24700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="N12" s="3">
         <v>8600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="O12" s="3">
         <v>96800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="P12" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -922,72 +954,108 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-31100</v>
+        <v>11600</v>
       </c>
       <c r="E14" s="3">
-        <v>-15600</v>
+        <v>6400</v>
       </c>
       <c r="F14" s="3">
-        <v>-36900</v>
+        <v>4600</v>
       </c>
       <c r="G14" s="3">
+        <v>171900</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="K14" s="3">
         <v>-556400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="L14" s="3">
         <v>7900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="M14" s="3">
         <v>-12900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="N14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="O14" s="3">
         <v>244000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="P14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>5400</v>
+        <v>11900</v>
       </c>
       <c r="E15" s="3">
-        <v>12200</v>
+        <v>12500</v>
       </c>
       <c r="F15" s="3">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="G15" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K15" s="3">
         <v>8700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="L15" s="3">
         <v>15000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="M15" s="3">
         <v>10900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="N15" s="3">
         <v>13300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="O15" s="3">
         <v>16400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="P15" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,72 +1065,100 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3911500</v>
+        <v>3690800</v>
       </c>
       <c r="E17" s="3">
-        <v>6420900</v>
+        <v>3705300</v>
       </c>
       <c r="F17" s="3">
-        <v>3028000</v>
+        <v>3295800</v>
       </c>
       <c r="G17" s="3">
+        <v>4145900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3667000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6019600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2838800</v>
+      </c>
+      <c r="K17" s="3">
         <v>3111000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>3200600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>3162600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>3223200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>3854400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3">
         <v>3182100</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1808800</v>
+        <v>1713500</v>
       </c>
       <c r="E18" s="3">
-        <v>3700600</v>
+        <v>1787300</v>
       </c>
       <c r="F18" s="3">
-        <v>1657600</v>
+        <v>1487000</v>
       </c>
       <c r="G18" s="3">
+        <v>1348300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1695800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3469300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1554000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1805100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>1063300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>1045700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>1055600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>538900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>838400</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1075,168 +1171,232 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>22900</v>
+        <v>-35300</v>
       </c>
       <c r="E20" s="3">
-        <v>48800</v>
+        <v>48300</v>
       </c>
       <c r="F20" s="3">
-        <v>28700</v>
+        <v>68100</v>
       </c>
       <c r="G20" s="3">
+        <v>96000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>21500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>45700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>26900</v>
+      </c>
+      <c r="K20" s="3">
         <v>18100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>-58800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="M20" s="3">
         <v>117200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="N20" s="3">
         <v>-111000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>291700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2494300</v>
+        <v>2340000</v>
       </c>
       <c r="E21" s="3">
-        <v>4935900</v>
+        <v>2463600</v>
       </c>
       <c r="F21" s="3">
-        <v>2259400</v>
+        <v>2152300</v>
       </c>
       <c r="G21" s="3">
+        <v>2017800</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2338400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>4627400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2118200</v>
+      </c>
+      <c r="K21" s="3">
         <v>2411200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>1718300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>1846200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>1604900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>1464900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>1499400</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>171400</v>
+        <v>142300</v>
       </c>
       <c r="E22" s="3">
-        <v>371000</v>
+        <v>143900</v>
       </c>
       <c r="F22" s="3">
-        <v>183200</v>
+        <v>135600</v>
       </c>
       <c r="G22" s="3">
+        <v>211300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>160600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>347900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>171800</v>
+      </c>
+      <c r="K22" s="3">
         <v>206800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="L22" s="3">
         <v>198200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="M22" s="3">
         <v>153300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="N22" s="3">
         <v>205200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="O22" s="3">
         <v>226800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="P22" s="3">
         <v>252900</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1660400</v>
+        <v>1535900</v>
       </c>
       <c r="E23" s="3">
-        <v>3378300</v>
+        <v>1691600</v>
       </c>
       <c r="F23" s="3">
-        <v>1503000</v>
+        <v>1419500</v>
       </c>
       <c r="G23" s="3">
+        <v>1233000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1556600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3167100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1409100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1616500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>806300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>1009600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>739400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>603800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>555500</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>698100</v>
+        <v>531000</v>
       </c>
       <c r="E24" s="3">
-        <v>1271500</v>
+        <v>561600</v>
       </c>
       <c r="F24" s="3">
-        <v>601600</v>
+        <v>502000</v>
       </c>
       <c r="G24" s="3">
+        <v>350100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>654500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1192000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>564000</v>
+      </c>
+      <c r="K24" s="3">
         <v>457200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="L24" s="3">
         <v>414600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="M24" s="3">
         <v>535100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="N24" s="3">
         <v>396300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="O24" s="3">
         <v>485600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="P24" s="3">
         <v>408300</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1267,72 +1427,108 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>962300</v>
+        <v>1005000</v>
       </c>
       <c r="E26" s="3">
-        <v>2106800</v>
+        <v>1130100</v>
       </c>
       <c r="F26" s="3">
-        <v>901500</v>
+        <v>917500</v>
       </c>
       <c r="G26" s="3">
+        <v>882900</v>
+      </c>
+      <c r="H26" s="3">
+        <v>902100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1975100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>845100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1159300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>391700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>474500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>343200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>118200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>147200</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>888000</v>
+        <v>903300</v>
       </c>
       <c r="E27" s="3">
-        <v>1962900</v>
+        <v>1046200</v>
       </c>
       <c r="F27" s="3">
-        <v>836700</v>
+        <v>823400</v>
       </c>
       <c r="G27" s="3">
+        <v>794200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>832500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1840300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>784400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1096500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>321100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>417500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>283500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>61400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1363,8 +1559,20 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1395,8 +1603,20 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1647,20 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,72 +1691,108 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-22900</v>
+        <v>35300</v>
       </c>
       <c r="E32" s="3">
-        <v>-48800</v>
+        <v>-48300</v>
       </c>
       <c r="F32" s="3">
-        <v>-28700</v>
+        <v>-68100</v>
       </c>
       <c r="G32" s="3">
+        <v>-96000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-18100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>58800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="M32" s="3">
         <v>-117200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="N32" s="3">
         <v>111000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>-291700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="P32" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>888000</v>
+        <v>903300</v>
       </c>
       <c r="E33" s="3">
-        <v>1962900</v>
+        <v>1046200</v>
       </c>
       <c r="F33" s="3">
-        <v>836700</v>
+        <v>823400</v>
       </c>
       <c r="G33" s="3">
+        <v>794200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>832500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1840300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>784400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1096500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>321100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>417500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>283500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>61400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1555,77 +1823,113 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>888000</v>
+        <v>903300</v>
       </c>
       <c r="E35" s="3">
-        <v>1962900</v>
+        <v>1046200</v>
       </c>
       <c r="F35" s="3">
-        <v>836700</v>
+        <v>823400</v>
       </c>
       <c r="G35" s="3">
+        <v>794200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>832500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1840300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>784400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1096500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>321100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>417500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>283500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>61400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1638,8 +1942,12 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1652,296 +1960,408 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1526300</v>
+        <v>2718400</v>
       </c>
       <c r="E41" s="3">
-        <v>1310200</v>
+        <v>1657200</v>
       </c>
       <c r="F41" s="3">
-        <v>1709700</v>
+        <v>2681400</v>
       </c>
       <c r="G41" s="3">
+        <v>1893500</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2136200</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1901200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2359900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1755700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>1832500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>1501600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>1561700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>1095700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3">
         <v>1691700</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3172600</v>
+        <v>735600</v>
       </c>
       <c r="E42" s="3">
-        <v>2721800</v>
+        <v>1007400</v>
       </c>
       <c r="F42" s="3">
-        <v>2220900</v>
+        <v>1499000</v>
       </c>
       <c r="G42" s="3">
+        <v>1596300</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2269000</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1878800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1325000</v>
+      </c>
+      <c r="K42" s="3">
         <v>1736700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="L42" s="3">
         <v>1560200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="M42" s="3">
         <v>1118400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="N42" s="3">
         <v>3310400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="O42" s="3">
         <v>3450900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="P42" s="3">
         <v>2458300</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2785800</v>
+        <v>2277600</v>
       </c>
       <c r="E43" s="3">
-        <v>2803300</v>
+        <v>2927700</v>
       </c>
       <c r="F43" s="3">
-        <v>2420400</v>
+        <v>3028600</v>
       </c>
       <c r="G43" s="3">
+        <v>2929300</v>
+      </c>
+      <c r="H43" s="3">
+        <v>2611700</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2628100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2269200</v>
+      </c>
+      <c r="K43" s="3">
         <v>2341000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="L43" s="3">
         <v>1978600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="M43" s="3">
         <v>1905300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="N43" s="3">
         <v>1705700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="O43" s="3">
         <v>2007700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="P43" s="3">
         <v>2235000</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1732200</v>
+        <v>1772000</v>
       </c>
       <c r="E44" s="3">
-        <v>1750900</v>
+        <v>1756200</v>
       </c>
       <c r="F44" s="3">
-        <v>1577400</v>
+        <v>1643400</v>
       </c>
       <c r="G44" s="3">
+        <v>1530100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1623900</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1641500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1478800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1472400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="L44" s="3">
         <v>1512100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="M44" s="3">
         <v>1366100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="N44" s="3">
         <v>1385800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="O44" s="3">
         <v>1267800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="P44" s="3">
         <v>1075500</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>155300</v>
+        <v>218100</v>
       </c>
       <c r="E45" s="3">
-        <v>133300</v>
+        <v>160400</v>
       </c>
       <c r="F45" s="3">
-        <v>140100</v>
+        <v>163000</v>
       </c>
       <c r="G45" s="3">
+        <v>159900</v>
+      </c>
+      <c r="H45" s="3">
+        <v>145600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>125000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>131300</v>
+      </c>
+      <c r="K45" s="3">
         <v>125800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="L45" s="3">
         <v>180600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="M45" s="3">
         <v>191400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="N45" s="3">
         <v>169900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="O45" s="3">
         <v>140500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="P45" s="3">
         <v>313400</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>9372100</v>
+        <v>7721600</v>
       </c>
       <c r="E46" s="3">
-        <v>8719600</v>
+        <v>7508900</v>
       </c>
       <c r="F46" s="3">
-        <v>8068500</v>
+        <v>9015400</v>
       </c>
       <c r="G46" s="3">
+        <v>8109200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>8786400</v>
+      </c>
+      <c r="I46" s="3">
+        <v>8174700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>7564200</v>
+      </c>
+      <c r="K46" s="3">
         <v>7431700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>7064000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>6082800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>8133400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>7962600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="P46" s="3">
         <v>7773800</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1815600</v>
+        <v>2173800</v>
       </c>
       <c r="E47" s="3">
-        <v>1735800</v>
+        <v>1937000</v>
       </c>
       <c r="F47" s="3">
-        <v>2058100</v>
+        <v>1483800</v>
       </c>
       <c r="G47" s="3">
+        <v>1628000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1702100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1627300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1929500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1815500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="L47" s="3">
         <v>1384000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="M47" s="3">
         <v>1419900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="N47" s="3">
         <v>1466400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="O47" s="3">
         <v>1205600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="P47" s="3">
         <v>1328900</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>26214900</v>
+        <v>26919000</v>
       </c>
       <c r="E48" s="3">
-        <v>26278100</v>
+        <v>25791100</v>
       </c>
       <c r="F48" s="3">
-        <v>25643900</v>
+        <v>25650100</v>
       </c>
       <c r="G48" s="3">
+        <v>25753700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>24576500</v>
+      </c>
+      <c r="I48" s="3">
+        <v>24635700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>24041100</v>
+      </c>
+      <c r="K48" s="3">
         <v>26453800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>25781800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>26507600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>26236200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>27921300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3">
         <v>27732000</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>419900</v>
+        <v>394800</v>
       </c>
       <c r="E49" s="3">
-        <v>409100</v>
+        <v>394400</v>
       </c>
       <c r="F49" s="3">
-        <v>409700</v>
+        <v>401700</v>
       </c>
       <c r="G49" s="3">
+        <v>399100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>393700</v>
+      </c>
+      <c r="I49" s="3">
+        <v>383600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>384100</v>
+      </c>
+      <c r="K49" s="3">
         <v>415900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="L49" s="3">
         <v>404900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="M49" s="3">
         <v>375200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="N49" s="3">
         <v>380300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="O49" s="3">
         <v>393200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="P49" s="3">
         <v>426000</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1972,8 +2392,20 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2004,40 +2436,64 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1819700</v>
+        <v>2089500</v>
       </c>
       <c r="E52" s="3">
-        <v>1764000</v>
+        <v>1904100</v>
       </c>
       <c r="F52" s="3">
-        <v>1762300</v>
+        <v>1901200</v>
       </c>
       <c r="G52" s="3">
+        <v>1982200</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1705900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1653700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1652100</v>
+      </c>
+      <c r="K52" s="3">
         <v>2499000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="L52" s="3">
         <v>2571300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="M52" s="3">
         <v>2636600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="N52" s="3">
         <v>2342900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>2548600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="P52" s="3">
         <v>2709300</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2068,40 +2524,64 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>39642200</v>
+        <v>39298800</v>
       </c>
       <c r="E54" s="3">
-        <v>38906600</v>
+        <v>37535300</v>
       </c>
       <c r="F54" s="3">
-        <v>37942500</v>
+        <v>38452300</v>
       </c>
       <c r="G54" s="3">
+        <v>37872200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>37164600</v>
+      </c>
+      <c r="I54" s="3">
+        <v>36475000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>35571100</v>
+      </c>
+      <c r="K54" s="3">
         <v>38615900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>37205900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>37022200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>38559200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>40031400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>39970100</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2114,8 +2594,12 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2128,200 +2612,276 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1978100</v>
+        <v>2136700</v>
       </c>
       <c r="E57" s="3">
-        <v>1673800</v>
+        <v>2025600</v>
       </c>
       <c r="F57" s="3">
-        <v>1479200</v>
+        <v>1842900</v>
       </c>
       <c r="G57" s="3">
+        <v>2063600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1854500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1569200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1386700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1628500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>1347100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>1319700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>1235200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>1540900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3">
         <v>1802300</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>2571000</v>
+        <v>1357400</v>
       </c>
       <c r="E58" s="3">
-        <v>1816600</v>
+        <v>1226500</v>
       </c>
       <c r="F58" s="3">
-        <v>1578500</v>
+        <v>1212800</v>
       </c>
       <c r="G58" s="3">
+        <v>1206000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2410300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1703100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1479900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1646200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="L58" s="3">
         <v>1636800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="M58" s="3">
         <v>1254200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="N58" s="3">
         <v>1310400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>1361600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="P58" s="3">
         <v>1668900</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2472600</v>
+        <v>2164800</v>
       </c>
       <c r="E59" s="3">
-        <v>2543800</v>
+        <v>2715800</v>
       </c>
       <c r="F59" s="3">
-        <v>3510200</v>
+        <v>4979500</v>
       </c>
       <c r="G59" s="3">
+        <v>2077900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>2318100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>2384800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3290800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2116200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>2184600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>2070100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>2920300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>2505200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>1795500</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>7021700</v>
+        <v>5659000</v>
       </c>
       <c r="E60" s="3">
-        <v>6034200</v>
+        <v>5967800</v>
       </c>
       <c r="F60" s="3">
-        <v>6567800</v>
+        <v>8035200</v>
       </c>
       <c r="G60" s="3">
+        <v>5347400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>6582900</v>
+      </c>
+      <c r="I60" s="3">
+        <v>5657100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>6157300</v>
+      </c>
+      <c r="K60" s="3">
         <v>5390900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>5168500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>4644100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>5465900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>5407800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>5266700</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>10194000</v>
+        <v>10764600</v>
       </c>
       <c r="E61" s="3">
-        <v>11408600</v>
+        <v>10013800</v>
       </c>
       <c r="F61" s="3">
-        <v>11528400</v>
+        <v>10105500</v>
       </c>
       <c r="G61" s="3">
+        <v>10212800</v>
+      </c>
+      <c r="H61" s="3">
+        <v>9556900</v>
+      </c>
+      <c r="I61" s="3">
+        <v>10695600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>10807900</v>
+      </c>
+      <c r="K61" s="3">
         <v>12289100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
         <v>12638500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="M61" s="3">
         <v>13502000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="N61" s="3">
         <v>14821200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>15871600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="P61" s="3">
         <v>15481100</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>4772100</v>
+        <v>4466100</v>
       </c>
       <c r="E62" s="3">
-        <v>4747700</v>
+        <v>4473500</v>
       </c>
       <c r="F62" s="3">
-        <v>4540400</v>
+        <v>4511500</v>
       </c>
       <c r="G62" s="3">
+        <v>4520700</v>
+      </c>
+      <c r="H62" s="3">
+        <v>4473900</v>
+      </c>
+      <c r="I62" s="3">
+        <v>4451000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>4256600</v>
+      </c>
+      <c r="K62" s="3">
         <v>5005900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="L62" s="3">
         <v>4070100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="M62" s="3">
         <v>3843000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="N62" s="3">
         <v>3738900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="O62" s="3">
         <v>3796500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="P62" s="3">
         <v>3809200</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2352,8 +2912,20 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2384,8 +2956,20 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2416,40 +3000,64 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>22564700</v>
+        <v>21535600</v>
       </c>
       <c r="E66" s="3">
-        <v>22801300</v>
+        <v>21113800</v>
       </c>
       <c r="F66" s="3">
-        <v>23161100</v>
+        <v>23248000</v>
       </c>
       <c r="G66" s="3">
+        <v>20708100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>21154400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>21376300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>21713500</v>
+      </c>
+      <c r="K66" s="3">
         <v>23288300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>22436200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>22579500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>24545600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>25619100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>25118300</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2462,8 +3070,12 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2494,8 +3106,20 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2526,8 +3150,20 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2558,8 +3194,20 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2590,40 +3238,64 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>4843600</v>
+        <v>5332500</v>
       </c>
       <c r="E72" s="3">
-        <v>3955500</v>
+        <v>4429100</v>
       </c>
       <c r="F72" s="3">
-        <v>2829500</v>
+        <v>3382900</v>
       </c>
       <c r="G72" s="3">
+        <v>5335100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>4540900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>3708300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2652600</v>
+      </c>
+      <c r="K72" s="3">
         <v>3163800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>2067600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>1746600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>1329000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>1390300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>1327600</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2654,8 +3326,20 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2686,8 +3370,20 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2718,40 +3414,64 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>17077500</v>
+        <v>17763200</v>
       </c>
       <c r="E76" s="3">
-        <v>16105300</v>
+        <v>16421600</v>
       </c>
       <c r="F76" s="3">
-        <v>14781400</v>
+        <v>15204300</v>
       </c>
       <c r="G76" s="3">
+        <v>17164100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>16010200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>15098700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>13857600</v>
+      </c>
+      <c r="K76" s="3">
         <v>15327600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>14769700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>14442700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>14013600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>14412400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>14851800</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2782,77 +3502,113 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>888000</v>
+        <v>903300</v>
       </c>
       <c r="E81" s="3">
-        <v>1962900</v>
+        <v>1046200</v>
       </c>
       <c r="F81" s="3">
-        <v>836700</v>
+        <v>823400</v>
       </c>
       <c r="G81" s="3">
+        <v>794200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>832500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1840300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>784400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1096500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>321100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>417500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>283500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>61400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>75500</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2865,40 +3621,56 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>662600</v>
+        <v>661800</v>
       </c>
       <c r="E83" s="3">
-        <v>1186500</v>
+        <v>628000</v>
       </c>
       <c r="F83" s="3">
-        <v>573100</v>
+        <v>597200</v>
       </c>
       <c r="G83" s="3">
+        <v>573500</v>
+      </c>
+      <c r="H83" s="3">
+        <v>621100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1112400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>537300</v>
+      </c>
+      <c r="K83" s="3">
         <v>588000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="L83" s="3">
         <v>713800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="M83" s="3">
         <v>683300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="N83" s="3">
         <v>660300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="O83" s="3">
         <v>634300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="P83" s="3">
         <v>690900</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2929,8 +3701,20 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2961,8 +3745,20 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2993,8 +3789,20 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3025,8 +3833,20 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3057,40 +3877,64 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>2737200</v>
+        <v>2792800</v>
       </c>
       <c r="E89" s="3">
-        <v>2980400</v>
+        <v>1801000</v>
       </c>
       <c r="F89" s="3">
-        <v>1495300</v>
+        <v>1450300</v>
       </c>
       <c r="G89" s="3">
+        <v>1357400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>2566200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2794100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1401900</v>
+      </c>
+      <c r="K89" s="3">
         <v>2033100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>1494000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>478900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>1425500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>1328000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3103,40 +3947,56 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-261100</v>
+        <v>-360400</v>
       </c>
       <c r="E91" s="3">
-        <v>-355200</v>
+        <v>-218500</v>
       </c>
       <c r="F91" s="3">
-        <v>-142000</v>
+        <v>-179900</v>
       </c>
       <c r="G91" s="3">
+        <v>-413100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-244800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-333000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-133100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-305300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="L91" s="3">
         <v>-160000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="M91" s="3">
         <v>-200100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="N91" s="3">
         <v>-90800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="O91" s="3">
         <v>-743300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="P91" s="3">
         <v>-691400</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3167,8 +4027,20 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3199,40 +4071,64 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1153500</v>
+        <v>-791800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1772100</v>
+        <v>-528000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1151400</v>
+        <v>-326000</v>
       </c>
       <c r="G94" s="3">
+        <v>150100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1081400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1661300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1079400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1135300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="L94" s="3">
         <v>-623200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="M94" s="3">
         <v>1472300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="N94" s="3">
         <v>-1116600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3">
         <v>-834500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="P94" s="3">
         <v>-1463100</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3245,40 +4141,56 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-586200</v>
+        <v>-924500</v>
       </c>
       <c r="E96" s="3">
-        <v>-785800</v>
+        <v>-1992800</v>
       </c>
       <c r="F96" s="3">
-        <v>-78400</v>
+        <v>-99800</v>
       </c>
       <c r="G96" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-549600</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-736600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-73500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-63900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="L96" s="3">
         <v>-53900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="M96" s="3">
         <v>-327100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="N96" s="3">
         <v>-36600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="O96" s="3">
         <v>-105500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="P96" s="3">
         <v>-95000</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3309,8 +4221,20 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3341,8 +4265,20 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3373,100 +4309,148 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1394500</v>
+        <v>-1060100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1658900</v>
+        <v>-2330900</v>
       </c>
       <c r="F100" s="3">
-        <v>-292200</v>
+        <v>-304800</v>
       </c>
       <c r="G100" s="3">
+        <v>-1874600</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-1307400</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-1555200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-273900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-877700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
         <v>-278100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>-2634600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>-294000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
         <v>-314200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3">
         <v>-619400</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>61400</v>
+        <v>120200</v>
       </c>
       <c r="E101" s="3">
-        <v>-64100</v>
+        <v>33800</v>
       </c>
       <c r="F101" s="3">
-        <v>-77200</v>
+        <v>-31700</v>
       </c>
       <c r="G101" s="3">
+        <v>124500</v>
+      </c>
+      <c r="H101" s="3">
+        <v>57500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-72400</v>
+      </c>
+      <c r="K101" s="3">
         <v>9800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="L101" s="3">
         <v>-78800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="M101" s="3">
         <v>69600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="N101" s="3">
         <v>-93500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="O101" s="3">
         <v>51000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="P101" s="3">
         <v>88600</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>250600</v>
+        <v>1061100</v>
       </c>
       <c r="E102" s="3">
-        <v>-514700</v>
+        <v>-1024100</v>
       </c>
       <c r="F102" s="3">
-        <v>-25400</v>
+        <v>787800</v>
       </c>
       <c r="G102" s="3">
+        <v>-242600</v>
+      </c>
+      <c r="H102" s="3">
+        <v>234900</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-482500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="K102" s="3">
         <v>30000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>513900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>-613900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>-78600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>230300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3">
         <v>-67900</v>
       </c>
     </row>
